--- a/inputs/skills.xlsx
+++ b/inputs/skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbecker11/workspace-resume/resume-parser-node/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D253B-01F1-8F4D-9ADE-36C3B637C4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F41E97-CD29-C047-B46F-8E1165F2AF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21100" yWindow="2960" windowWidth="25980" windowHeight="11740" xr2:uid="{08309E7A-9561-5A47-AA03-2A04D6CBDA28}"/>
+    <workbookView xWindow="-26180" yWindow="500" windowWidth="25980" windowHeight="15000" xr2:uid="{08309E7A-9561-5A47-AA03-2A04D6CBDA28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1366,13 +1366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFCAD0D-DF8F-7F45-8966-533FA7357149}">
-  <dimension ref="A2:AH156"/>
+  <dimension ref="A1:AH155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1386,193 +1386,233 @@
     <col min="31" max="34" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" s="11" customFormat="1" ht="203">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:34" s="11" customFormat="1" ht="203">
+      <c r="A1" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="9" customFormat="1" ht="15">
-      <c r="A3" s="18" t="s">
+    <row r="2" spans="1:34" s="9" customFormat="1" ht="15">
+      <c r="A2" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F2" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I2" s="10">
         <v>3</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J2" s="10">
         <v>6</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K2" s="10">
         <v>9</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L2" s="10">
         <v>3</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M2" s="10">
         <v>2</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N2" s="10">
         <v>2</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O2" s="10">
         <v>1</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P2" s="10">
         <v>2</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q2" s="10">
         <v>6</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S2" s="10">
         <v>1</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T2" s="10">
         <v>6</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U2" s="10">
         <v>3</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>238</v>
       </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="15" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1594,14 +1634,22 @@
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="T4" s="2">
+        <v>6</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -1612,13 +1660,15 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1629,27 +1679,17 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2">
-        <v>6</v>
-      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="2">
-        <v>6</v>
-      </c>
-      <c r="U5" s="2">
-        <v>3</v>
-      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -1660,15 +1700,19 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1700,15 +1744,11 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>1</v>
       </c>
@@ -1744,11 +1784,15 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
@@ -1784,7 +1828,7 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="15" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
@@ -1799,7 +1843,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1807,7 +1853,9 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>6</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1828,24 +1876,18 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="15" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1853,20 +1895,24 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2">
-        <v>6</v>
-      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2">
+        <v>6</v>
+      </c>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="V10" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -1876,15 +1922,13 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="15" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1895,24 +1939,20 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>6</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2">
-        <v>6</v>
-      </c>
+      <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -1922,9 +1962,11 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1939,9 +1981,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2">
-        <v>6</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1962,16 +2002,16 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2001,17 +2041,12 @@
       <c r="AH13" s="2"/>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2032,15 +2067,18 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
     <row r="15" spans="1:34">
+      <c r="A15" s="16" t="s">
+        <v>233</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2067,34 +2105,50 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="16" t="s">
-        <v>233</v>
+      <c r="A16" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -2115,40 +2169,26 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="15" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -2169,7 +2209,7 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="15" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2178,10 +2218,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>3</v>
-      </c>
-      <c r="J18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <v>6</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2209,7 +2249,7 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="15" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2218,10 +2258,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
-        <v>6</v>
-      </c>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2249,19 +2289,23 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" s="15" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
         <v>3</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>6</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2289,7 +2333,7 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="15" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2300,12 +2344,8 @@
         <v>1</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="2">
-        <v>3</v>
-      </c>
-      <c r="J21" s="2">
-        <v>6</v>
-      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2333,7 +2373,7 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2344,7 +2384,9 @@
         <v>1</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2373,7 +2415,7 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="15" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2387,7 +2429,9 @@
       <c r="I23" s="2">
         <v>3</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <v>6</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2415,7 +2459,7 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2426,12 +2470,8 @@
         <v>1</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <v>3</v>
-      </c>
-      <c r="J24" s="2">
-        <v>6</v>
-      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2459,19 +2499,19 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>6</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2499,7 +2539,7 @@
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2508,10 +2548,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2">
-        <v>6</v>
-      </c>
+      <c r="I26" s="2">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2539,18 +2579,18 @@
     </row>
     <row r="27" spans="1:34">
       <c r="A27" s="15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>3</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2579,16 +2619,16 @@
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="15" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2618,27 +2658,41 @@
       <c r="AH28" s="2"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="15" t="s">
-        <v>9</v>
+      <c r="A29" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="I29" s="2">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6</v>
+      </c>
+      <c r="K29" s="2">
+        <v>9</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="Q29" s="2">
+        <v>6</v>
+      </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -2658,41 +2712,27 @@
       <c r="AH29" s="2"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="16" t="s">
-        <v>234</v>
+      <c r="A30" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2">
         <v>3</v>
       </c>
-      <c r="J30" s="2">
-        <v>6</v>
-      </c>
-      <c r="K30" s="2">
-        <v>9</v>
-      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2">
-        <v>6</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -2713,18 +2753,18 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="15" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2">
-        <v>3</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2753,19 +2793,29 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" s="15" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="I32" s="2">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2793,26 +2843,16 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="15" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2">
-        <v>3</v>
-      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2">
         <v>6</v>
       </c>
@@ -2843,7 +2883,7 @@
     </row>
     <row r="34" spans="1:34">
       <c r="A34" s="15" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2852,10 +2892,10 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2">
-        <v>6</v>
-      </c>
+      <c r="I34" s="2">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2883,12 +2923,18 @@
     </row>
     <row r="35" spans="1:34">
       <c r="A35" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2923,25 +2969,19 @@
     </row>
     <row r="36" spans="1:34">
       <c r="A36" s="15" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <v>3</v>
-      </c>
-      <c r="J36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
+        <v>6</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -2969,16 +3009,26 @@
     </row>
     <row r="37" spans="1:34">
       <c r="A37" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="I37" s="2">
+        <v>3</v>
+      </c>
       <c r="J37" s="2">
         <v>6</v>
       </c>
@@ -3009,29 +3059,19 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="15" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2">
-        <v>6</v>
-      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3049,7 +3089,9 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
+      <c r="AB38" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
@@ -3059,15 +3101,15 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" s="15" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3089,9 +3131,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
-      <c r="AB39" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
@@ -3101,19 +3141,19 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2">
+        <v>6</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3140,8 +3180,8 @@
       <c r="AH40" s="2"/>
     </row>
     <row r="41" spans="1:34">
-      <c r="A41" s="15" t="s">
-        <v>121</v>
+      <c r="A41" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3150,7 +3190,9 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="I41" s="2">
+        <v>3</v>
+      </c>
       <c r="J41" s="2">
         <v>6</v>
       </c>
@@ -3181,7 +3223,7 @@
     </row>
     <row r="42" spans="1:34">
       <c r="A42" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3222,22 +3264,22 @@
       <c r="AH42" s="2"/>
     </row>
     <row r="43" spans="1:34">
-      <c r="A43" s="16" t="s">
-        <v>236</v>
+      <c r="A43" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2">
-        <v>3</v>
-      </c>
-      <c r="J43" s="2">
-        <v>6</v>
-      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3264,22 +3306,20 @@
       <c r="AH43" s="2"/>
     </row>
     <row r="44" spans="1:34">
-      <c r="A44" s="15" t="s">
-        <v>125</v>
+      <c r="A44" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2">
+        <v>6</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -3306,31 +3346,65 @@
       <c r="AH44" s="2"/>
     </row>
     <row r="45" spans="1:34">
-      <c r="A45" s="16" t="s">
-        <v>237</v>
+      <c r="A45" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
       <c r="J45" s="2">
         <v>6</v>
       </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
+      <c r="K45" s="2">
+        <v>9</v>
+      </c>
+      <c r="L45" s="2">
+        <v>3</v>
+      </c>
+      <c r="M45" s="2">
+        <v>3</v>
+      </c>
+      <c r="N45" s="2">
+        <v>2</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>6</v>
+      </c>
+      <c r="R45" s="2">
+        <v>1</v>
+      </c>
+      <c r="S45" s="2">
+        <v>1</v>
+      </c>
+      <c r="T45" s="2">
+        <v>6</v>
+      </c>
+      <c r="U45" s="2">
+        <v>3</v>
+      </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -3347,64 +3421,32 @@
     </row>
     <row r="46" spans="1:34">
       <c r="A46" s="15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2">
-        <v>3</v>
-      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="2">
         <v>6</v>
       </c>
-      <c r="K46" s="2">
-        <v>9</v>
-      </c>
-      <c r="L46" s="2">
-        <v>3</v>
-      </c>
-      <c r="M46" s="2">
-        <v>3</v>
-      </c>
-      <c r="N46" s="2">
-        <v>2</v>
-      </c>
-      <c r="O46" s="2">
-        <v>1</v>
-      </c>
-      <c r="P46" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>6</v>
-      </c>
-      <c r="R46" s="2">
-        <v>1</v>
-      </c>
-      <c r="S46" s="2">
-        <v>1</v>
-      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
       <c r="T46" s="2">
         <v>6</v>
       </c>
-      <c r="U46" s="2">
-        <v>3</v>
-      </c>
+      <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -3421,7 +3463,7 @@
     </row>
     <row r="47" spans="1:34">
       <c r="A47" s="15" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3431,21 +3473,29 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="2">
-        <v>6</v>
-      </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2">
+        <v>9</v>
+      </c>
+      <c r="L47" s="2">
+        <v>3</v>
+      </c>
+      <c r="M47" s="2">
+        <v>3</v>
+      </c>
+      <c r="N47" s="2">
+        <v>2</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>2</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="2">
-        <v>6</v>
-      </c>
+      <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
@@ -3463,7 +3513,7 @@
     </row>
     <row r="48" spans="1:34">
       <c r="A48" s="15" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3474,29 +3524,23 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2">
-        <v>9</v>
-      </c>
-      <c r="L48" s="2">
-        <v>3</v>
-      </c>
-      <c r="M48" s="2">
-        <v>3</v>
-      </c>
-      <c r="N48" s="2">
-        <v>2</v>
-      </c>
-      <c r="O48" s="2">
-        <v>1</v>
-      </c>
-      <c r="P48" s="2">
-        <v>2</v>
-      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
+      <c r="S48" s="2">
+        <v>1</v>
+      </c>
+      <c r="T48" s="2">
+        <v>6</v>
+      </c>
+      <c r="U48" s="2">
+        <v>3</v>
+      </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -3513,7 +3557,7 @@
     </row>
     <row r="49" spans="1:34">
       <c r="A49" s="15" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3532,17 +3576,13 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="2">
-        <v>1</v>
-      </c>
-      <c r="T49" s="2">
-        <v>6</v>
-      </c>
-      <c r="U49" s="2">
-        <v>3</v>
-      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
+      <c r="W49" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -3557,16 +3597,30 @@
     </row>
     <row r="50" spans="1:34">
       <c r="A50" s="15" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>3</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3580,9 +3634,7 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -3597,30 +3649,18 @@
     </row>
     <row r="51" spans="1:34">
       <c r="A51" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2">
         <v>1</v>
       </c>
-      <c r="G51" s="2">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2">
-        <v>3</v>
-      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3649,19 +3689,19 @@
     </row>
     <row r="52" spans="1:34">
       <c r="A52" s="15" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2">
-        <v>1</v>
-      </c>
+      <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2">
+        <v>6</v>
+      </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3689,7 +3729,7 @@
     </row>
     <row r="53" spans="1:34">
       <c r="A53" s="15" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3699,9 +3739,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="2">
-        <v>6</v>
-      </c>
+      <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3711,7 +3749,9 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
+      <c r="T53" s="2">
+        <v>6</v>
+      </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
@@ -3729,9 +3769,11 @@
     </row>
     <row r="54" spans="1:34">
       <c r="A54" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -3749,9 +3791,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-      <c r="T54" s="2">
-        <v>6</v>
-      </c>
+      <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
@@ -3769,13 +3809,13 @@
     </row>
     <row r="55" spans="1:34">
       <c r="A55" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3809,18 +3849,30 @@
     </row>
     <row r="56" spans="1:34">
       <c r="A56" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>3</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -3849,38 +3901,42 @@
     </row>
     <row r="57" spans="1:34">
       <c r="A57" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
       <c r="I57" s="2">
         <v>3</v>
       </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
+      <c r="J57" s="2">
+        <v>6</v>
+      </c>
+      <c r="K57" s="2">
+        <v>9</v>
+      </c>
+      <c r="L57" s="2">
+        <v>3</v>
+      </c>
+      <c r="M57" s="2">
+        <v>3</v>
+      </c>
+      <c r="N57" s="2">
+        <v>2</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>6</v>
+      </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
@@ -3901,49 +3957,35 @@
     </row>
     <row r="58" spans="1:34">
       <c r="A58" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="2">
-        <v>3</v>
-      </c>
-      <c r="J58" s="2">
-        <v>6</v>
-      </c>
-      <c r="K58" s="2">
-        <v>9</v>
-      </c>
-      <c r="L58" s="2">
-        <v>3</v>
-      </c>
-      <c r="M58" s="2">
-        <v>3</v>
-      </c>
-      <c r="N58" s="2">
-        <v>2</v>
-      </c>
-      <c r="O58" s="2">
-        <v>1</v>
-      </c>
-      <c r="P58" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>6</v>
-      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
+      <c r="X58" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
@@ -3957,12 +3999,12 @@
     </row>
     <row r="59" spans="1:34">
       <c r="A59" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -3983,9 +4025,7 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
-      <c r="X59" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
@@ -3999,16 +4039,16 @@
     </row>
     <row r="60" spans="1:34">
       <c r="A60" s="15" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -4039,16 +4079,16 @@
     </row>
     <row r="61" spans="1:34">
       <c r="A61" s="15" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="2">
-        <v>1</v>
-      </c>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -4079,18 +4119,30 @@
     </row>
     <row r="62" spans="1:34">
       <c r="A62" s="15" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
       <c r="E62" s="2">
         <v>1</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>3</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -4119,30 +4171,18 @@
     </row>
     <row r="63" spans="1:34">
       <c r="A63" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2">
-        <v>1</v>
-      </c>
-      <c r="I63" s="2">
-        <v>3</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -4171,7 +4211,7 @@
     </row>
     <row r="64" spans="1:34">
       <c r="A64" s="15" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>178</v>
@@ -4211,26 +4251,42 @@
     </row>
     <row r="65" spans="1:34">
       <c r="A65" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
+      <c r="I65" s="2">
+        <v>3</v>
+      </c>
+      <c r="J65" s="2">
+        <v>6</v>
+      </c>
+      <c r="K65" s="2">
+        <v>9</v>
+      </c>
+      <c r="L65" s="2">
+        <v>3</v>
+      </c>
+      <c r="M65" s="2">
+        <v>3</v>
+      </c>
+      <c r="N65" s="2">
+        <v>2</v>
+      </c>
+      <c r="O65" s="2">
+        <v>1</v>
+      </c>
+      <c r="P65" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>6</v>
+      </c>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
@@ -4251,7 +4307,7 @@
     </row>
     <row r="66" spans="1:34">
       <c r="A66" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4307,15 +4363,27 @@
     </row>
     <row r="67" spans="1:34">
       <c r="A67" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
       <c r="I67" s="2">
         <v>3</v>
       </c>
@@ -4363,54 +4431,28 @@
     </row>
     <row r="68" spans="1:34">
       <c r="A68" s="15" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2">
         <v>1</v>
       </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1</v>
-      </c>
-      <c r="G68" s="2">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2">
-        <v>1</v>
-      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="2">
         <v>3</v>
       </c>
-      <c r="J68" s="2">
-        <v>6</v>
-      </c>
-      <c r="K68" s="2">
-        <v>9</v>
-      </c>
-      <c r="L68" s="2">
-        <v>3</v>
-      </c>
-      <c r="M68" s="2">
-        <v>3</v>
-      </c>
-      <c r="N68" s="2">
-        <v>2</v>
-      </c>
-      <c r="O68" s="2">
-        <v>1</v>
-      </c>
-      <c r="P68" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>6</v>
-      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
@@ -4431,20 +4473,18 @@
     </row>
     <row r="69" spans="1:34">
       <c r="A69" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="2">
-        <v>3</v>
-      </c>
+      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -4473,18 +4513,18 @@
     </row>
     <row r="70" spans="1:34">
       <c r="A70" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="I70" s="2">
+        <v>3</v>
+      </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -4513,26 +4553,54 @@
     </row>
     <row r="71" spans="1:34">
       <c r="A71" s="15" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
       <c r="I71" s="2">
         <v>3</v>
       </c>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
+      <c r="J71" s="2">
+        <v>6</v>
+      </c>
+      <c r="K71" s="2">
+        <v>9</v>
+      </c>
+      <c r="L71" s="2">
+        <v>3</v>
+      </c>
+      <c r="M71" s="2">
+        <v>3</v>
+      </c>
+      <c r="N71" s="2">
+        <v>2</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1</v>
+      </c>
+      <c r="P71" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>6</v>
+      </c>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
@@ -4553,54 +4621,26 @@
     </row>
     <row r="72" spans="1:34">
       <c r="A72" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2">
-        <v>1</v>
-      </c>
-      <c r="G72" s="2">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2">
-        <v>1</v>
-      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="2">
         <v>3</v>
       </c>
-      <c r="J72" s="2">
-        <v>6</v>
-      </c>
-      <c r="K72" s="2">
-        <v>9</v>
-      </c>
-      <c r="L72" s="2">
-        <v>3</v>
-      </c>
-      <c r="M72" s="2">
-        <v>3</v>
-      </c>
-      <c r="N72" s="2">
-        <v>2</v>
-      </c>
-      <c r="O72" s="2">
-        <v>1</v>
-      </c>
-      <c r="P72" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>6</v>
-      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
@@ -4621,7 +4661,7 @@
     </row>
     <row r="73" spans="1:34">
       <c r="A73" s="15" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4630,10 +4670,10 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2">
-        <v>3</v>
-      </c>
-      <c r="J73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2">
+        <v>6</v>
+      </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -4651,7 +4691,9 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
-      <c r="AB73" s="2"/>
+      <c r="AB73" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
@@ -4661,19 +4703,23 @@
     </row>
     <row r="74" spans="1:34">
       <c r="A74" s="15" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="2">
-        <v>6</v>
-      </c>
+      <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -4691,9 +4737,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
-      <c r="AB74" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
@@ -4703,7 +4747,7 @@
     </row>
     <row r="75" spans="1:34">
       <c r="A75" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2">
@@ -4747,7 +4791,7 @@
     </row>
     <row r="76" spans="1:34">
       <c r="A76" s="15" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2">
@@ -4756,13 +4800,19 @@
       <c r="D76" s="2">
         <v>1</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
       <c r="G76" s="2">
         <v>1</v>
       </c>
       <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -4791,40 +4841,48 @@
     </row>
     <row r="77" spans="1:34">
       <c r="A77" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2">
         <v>1</v>
       </c>
-      <c r="D77" s="2">
+      <c r="I77" s="2"/>
+      <c r="J77" s="2">
+        <v>6</v>
+      </c>
+      <c r="K77" s="2">
+        <v>9</v>
+      </c>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2">
+        <v>2</v>
+      </c>
+      <c r="N77" s="2">
+        <v>2</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>6</v>
+      </c>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2">
         <v>1</v>
       </c>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2">
-        <v>1</v>
-      </c>
-      <c r="G77" s="2">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
+      <c r="T77" s="2">
+        <v>6</v>
+      </c>
+      <c r="U77" s="2">
+        <v>3</v>
+      </c>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
@@ -4832,7 +4890,9 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
+      <c r="AC77" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
@@ -4841,7 +4901,7 @@
     </row>
     <row r="78" spans="1:34">
       <c r="A78" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4849,9 +4909,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="2">
-        <v>1</v>
-      </c>
+      <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2">
         <v>6</v>
@@ -4893,7 +4951,9 @@
       <c r="AC78" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AD78" s="2"/>
+      <c r="AD78" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
       <c r="AG78" s="2"/>
@@ -4901,30 +4961,48 @@
     </row>
     <row r="79" spans="1:34">
       <c r="A79" s="15" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2">
+        <v>3</v>
+      </c>
       <c r="J79" s="2">
         <v>6</v>
       </c>
       <c r="K79" s="2">
         <v>9</v>
       </c>
-      <c r="L79" s="2"/>
+      <c r="L79" s="2">
+        <v>3</v>
+      </c>
       <c r="M79" s="2">
         <v>2</v>
       </c>
       <c r="N79" s="2">
         <v>2</v>
       </c>
-      <c r="O79" s="2"/>
+      <c r="O79" s="2">
+        <v>1</v>
+      </c>
       <c r="P79" s="2">
         <v>2</v>
       </c>
@@ -4932,15 +5010,9 @@
         <v>6</v>
       </c>
       <c r="R79" s="2"/>
-      <c r="S79" s="2">
-        <v>1</v>
-      </c>
-      <c r="T79" s="2">
-        <v>6</v>
-      </c>
-      <c r="U79" s="2">
-        <v>3</v>
-      </c>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
@@ -4961,7 +5033,7 @@
     </row>
     <row r="80" spans="1:34">
       <c r="A80" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2">
@@ -5033,54 +5105,26 @@
     </row>
     <row r="81" spans="1:34">
       <c r="A81" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2">
+        <v>43</v>
+      </c>
+      <c r="B81" s="2">
         <v>1</v>
       </c>
-      <c r="D81" s="2">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2">
-        <v>1</v>
-      </c>
-      <c r="F81" s="2">
-        <v>1</v>
-      </c>
-      <c r="G81" s="2">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2">
-        <v>1</v>
-      </c>
-      <c r="I81" s="2">
-        <v>3</v>
-      </c>
-      <c r="J81" s="2">
-        <v>6</v>
-      </c>
-      <c r="K81" s="2">
-        <v>9</v>
-      </c>
-      <c r="L81" s="2">
-        <v>3</v>
-      </c>
-      <c r="M81" s="2">
-        <v>2</v>
-      </c>
-      <c r="N81" s="2">
-        <v>2</v>
-      </c>
-      <c r="O81" s="2">
-        <v>1</v>
-      </c>
-      <c r="P81" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>6</v>
-      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -5092,12 +5136,8 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
-      <c r="AC81" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD81" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
       <c r="AG81" s="2"/>
@@ -5105,14 +5145,14 @@
     </row>
     <row r="82" spans="1:34">
       <c r="A82" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -5145,7 +5185,7 @@
     </row>
     <row r="83" spans="1:34">
       <c r="A83" s="15" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5185,14 +5225,12 @@
     </row>
     <row r="84" spans="1:34">
       <c r="A84" s="15" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2">
-        <v>1</v>
-      </c>
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -5225,7 +5263,7 @@
     </row>
     <row r="85" spans="1:34">
       <c r="A85" s="15" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5234,15 +5272,25 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="I85" s="2">
+        <v>3</v>
+      </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="M85" s="2">
+        <v>2</v>
+      </c>
+      <c r="N85" s="2">
+        <v>2</v>
+      </c>
       <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
+      <c r="P85" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>6</v>
+      </c>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
@@ -5263,20 +5311,24 @@
     </row>
     <row r="86" spans="1:34">
       <c r="A86" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2">
-        <v>3</v>
-      </c>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2">
+        <v>6</v>
+      </c>
+      <c r="K86" s="2">
+        <v>9</v>
+      </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2">
         <v>2</v>
@@ -5292,9 +5344,15 @@
         <v>6</v>
       </c>
       <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
+      <c r="S86" s="2">
+        <v>1</v>
+      </c>
+      <c r="T86" s="2">
+        <v>6</v>
+      </c>
+      <c r="U86" s="2">
+        <v>3</v>
+      </c>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
@@ -5302,8 +5360,12 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
-      <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
+      <c r="AC86" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD86" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
       <c r="AG86" s="2"/>
@@ -5311,48 +5373,42 @@
     </row>
     <row r="87" spans="1:34">
       <c r="A87" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B87" s="2">
+        <v>46</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2">
         <v>1</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2">
-        <v>6</v>
-      </c>
-      <c r="K87" s="2">
-        <v>9</v>
-      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
+        <v>1</v>
+      </c>
+      <c r="I87" s="2">
+        <v>3</v>
+      </c>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="2">
-        <v>2</v>
-      </c>
-      <c r="N87" s="2">
-        <v>2</v>
-      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
-      <c r="P87" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q87" s="2">
-        <v>6</v>
-      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
-      <c r="S87" s="2">
-        <v>1</v>
-      </c>
-      <c r="T87" s="2">
-        <v>6</v>
-      </c>
-      <c r="U87" s="2">
-        <v>3</v>
-      </c>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
@@ -5360,12 +5416,8 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
-      <c r="AC87" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD87" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
       <c r="AG87" s="2"/>
@@ -5373,7 +5425,7 @@
     </row>
     <row r="88" spans="1:34">
       <c r="A88" s="15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2">
@@ -5425,30 +5477,18 @@
     </row>
     <row r="89" spans="1:34">
       <c r="A89" s="15" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2">
-        <v>1</v>
-      </c>
-      <c r="D89" s="2">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2">
-        <v>1</v>
-      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
       <c r="F89" s="2">
         <v>1</v>
       </c>
-      <c r="G89" s="2">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2">
-        <v>1</v>
-      </c>
-      <c r="I89" s="2">
-        <v>3</v>
-      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -5467,9 +5507,13 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
+      <c r="AB89" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC89" s="2"/>
-      <c r="AD89" s="2"/>
+      <c r="AD89" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
       <c r="AG89" s="2"/>
@@ -5477,19 +5521,19 @@
     </row>
     <row r="90" spans="1:34">
       <c r="A90" s="15" t="s">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="2">
-        <v>1</v>
-      </c>
+      <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
+      <c r="J90" s="2">
+        <v>6</v>
+      </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -5511,9 +5555,7 @@
         <v>178</v>
       </c>
       <c r="AC90" s="2"/>
-      <c r="AD90" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
       <c r="AG90" s="2"/>
@@ -5521,19 +5563,19 @@
     </row>
     <row r="91" spans="1:34">
       <c r="A91" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="2">
-        <v>6</v>
-      </c>
+      <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -5563,16 +5605,24 @@
     </row>
     <row r="92" spans="1:34">
       <c r="A92" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
       <c r="F92" s="2">
         <v>1</v>
       </c>
-      <c r="G92" s="2"/>
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -5593,9 +5643,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
-      <c r="AB92" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
@@ -5605,21 +5653,13 @@
     </row>
     <row r="93" spans="1:34">
       <c r="A93" s="15" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="2">
-        <v>1</v>
-      </c>
-      <c r="D93" s="2">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="2">
-        <v>1</v>
-      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
       <c r="G93" s="2">
         <v>1</v>
       </c>
@@ -5640,7 +5680,9 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
+      <c r="Y93" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
@@ -5653,36 +5695,50 @@
     </row>
     <row r="94" spans="1:34">
       <c r="A94" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="2">
-        <v>1</v>
-      </c>
+      <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
+      <c r="K94" s="2">
+        <v>9</v>
+      </c>
+      <c r="L94" s="2">
+        <v>3</v>
+      </c>
+      <c r="M94" s="2">
+        <v>2</v>
+      </c>
+      <c r="N94" s="2">
+        <v>2</v>
+      </c>
+      <c r="O94" s="2">
+        <v>1</v>
+      </c>
+      <c r="P94" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>6</v>
+      </c>
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
+      <c r="T94" s="2">
+        <v>6</v>
+      </c>
+      <c r="U94" s="2">
+        <v>3</v>
+      </c>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
-      <c r="Y94" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
@@ -5695,17 +5751,35 @@
     </row>
     <row r="95" spans="1:34">
       <c r="A95" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2">
+        <v>3</v>
+      </c>
+      <c r="J95" s="2">
+        <v>6</v>
+      </c>
       <c r="K95" s="2">
         <v>9</v>
       </c>
@@ -5728,7 +5802,9 @@
         <v>6</v>
       </c>
       <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
+      <c r="S95" s="2">
+        <v>1</v>
+      </c>
       <c r="T95" s="2">
         <v>6</v>
       </c>
@@ -5742,8 +5818,12 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
-      <c r="AC95" s="2"/>
-      <c r="AD95" s="2"/>
+      <c r="AC95" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD95" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
       <c r="AG95" s="2"/>
@@ -5751,66 +5831,34 @@
     </row>
     <row r="96" spans="1:34">
       <c r="A96" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B96" s="2">
-        <v>1</v>
-      </c>
-      <c r="C96" s="2">
-        <v>1</v>
-      </c>
-      <c r="D96" s="2">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
       <c r="F96" s="2">
         <v>1</v>
       </c>
-      <c r="G96" s="2">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2">
-        <v>1</v>
-      </c>
-      <c r="I96" s="2">
-        <v>3</v>
-      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
       <c r="J96" s="2">
         <v>6</v>
       </c>
-      <c r="K96" s="2">
-        <v>9</v>
-      </c>
-      <c r="L96" s="2">
-        <v>3</v>
-      </c>
-      <c r="M96" s="2">
-        <v>2</v>
-      </c>
-      <c r="N96" s="2">
-        <v>2</v>
-      </c>
-      <c r="O96" s="2">
-        <v>1</v>
-      </c>
-      <c r="P96" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q96" s="2">
-        <v>6</v>
-      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
-      <c r="S96" s="2">
-        <v>1</v>
-      </c>
+      <c r="S96" s="2"/>
       <c r="T96" s="2">
         <v>6</v>
       </c>
-      <c r="U96" s="2">
-        <v>3</v>
-      </c>
+      <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
@@ -5818,12 +5866,8 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
-      <c r="AC96" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD96" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
       <c r="AG96" s="2"/>
@@ -5831,21 +5875,19 @@
     </row>
     <row r="97" spans="1:34">
       <c r="A97" s="15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2">
+      <c r="E97" s="2">
         <v>1</v>
       </c>
+      <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="2">
-        <v>6</v>
-      </c>
+      <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -5855,9 +5897,7 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
-      <c r="T97" s="2">
-        <v>6</v>
-      </c>
+      <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
@@ -5875,15 +5915,15 @@
     </row>
     <row r="98" spans="1:34">
       <c r="A98" s="15" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="2">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2">
         <v>1</v>
       </c>
-      <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -5905,7 +5945,9 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
-      <c r="AB98" s="2"/>
+      <c r="AB98" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
@@ -5915,15 +5957,15 @@
     </row>
     <row r="99" spans="1:34">
       <c r="A99" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B99" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="2">
-        <v>1</v>
-      </c>
+      <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -5945,9 +5987,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
-      <c r="AB99" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
@@ -5957,20 +5997,24 @@
     </row>
     <row r="100" spans="1:34">
       <c r="A100" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
+      <c r="G100" s="2">
+        <v>1</v>
+      </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="J100" s="2">
+        <v>6</v>
+      </c>
+      <c r="K100" s="2">
+        <v>9</v>
+      </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -5997,30 +6041,54 @@
     </row>
     <row r="101" spans="1:34">
       <c r="A101" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
       <c r="G101" s="2">
         <v>1</v>
       </c>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+      <c r="H101" s="2">
+        <v>1</v>
+      </c>
+      <c r="I101" s="2">
+        <v>3</v>
+      </c>
       <c r="J101" s="2">
         <v>6</v>
       </c>
       <c r="K101" s="2">
         <v>9</v>
       </c>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
+      <c r="L101" s="2">
+        <v>3</v>
+      </c>
+      <c r="M101" s="2">
+        <v>2</v>
+      </c>
+      <c r="N101" s="2">
+        <v>2</v>
+      </c>
+      <c r="O101" s="2">
+        <v>1</v>
+      </c>
+      <c r="P101" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>6</v>
+      </c>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -6041,33 +6109,17 @@
     </row>
     <row r="102" spans="1:34">
       <c r="A102" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="2">
-        <v>1</v>
-      </c>
-      <c r="D102" s="2">
-        <v>1</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="2">
-        <v>1</v>
-      </c>
-      <c r="G102" s="2">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2">
-        <v>1</v>
-      </c>
-      <c r="I102" s="2">
-        <v>3</v>
-      </c>
-      <c r="J102" s="2">
-        <v>6</v>
-      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
       <c r="K102" s="2">
         <v>9</v>
       </c>
@@ -6086,9 +6138,7 @@
       <c r="P102" s="2">
         <v>2</v>
       </c>
-      <c r="Q102" s="2">
-        <v>6</v>
-      </c>
+      <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -6109,35 +6159,25 @@
     </row>
     <row r="103" spans="1:34">
       <c r="A103" s="15" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2">
-        <v>9</v>
-      </c>
-      <c r="L103" s="2">
-        <v>3</v>
-      </c>
-      <c r="M103" s="2">
-        <v>2</v>
-      </c>
-      <c r="N103" s="2">
-        <v>2</v>
-      </c>
-      <c r="O103" s="2">
-        <v>1</v>
-      </c>
-      <c r="P103" s="2">
-        <v>2</v>
-      </c>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
@@ -6159,14 +6199,14 @@
     </row>
     <row r="104" spans="1:34">
       <c r="A104" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B104" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2">
-        <v>1</v>
-      </c>
+      <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -6191,7 +6231,9 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
-      <c r="AD104" s="2"/>
+      <c r="AD104" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
       <c r="AG104" s="2"/>
@@ -6199,7 +6241,7 @@
     </row>
     <row r="105" spans="1:34">
       <c r="A105" s="15" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>178</v>
@@ -6211,7 +6253,9 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
+      <c r="J105" s="2">
+        <v>6</v>
+      </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -6231,9 +6275,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
-      <c r="AD105" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
       <c r="AG105" s="2"/>
@@ -6241,21 +6283,19 @@
     </row>
     <row r="106" spans="1:34">
       <c r="A106" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="H106" s="2">
+        <v>1</v>
+      </c>
       <c r="I106" s="2"/>
-      <c r="J106" s="2">
-        <v>6</v>
-      </c>
+      <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -6274,8 +6314,12 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
-      <c r="AC106" s="2"/>
-      <c r="AD106" s="2"/>
+      <c r="AC106" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD106" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
       <c r="AG106" s="2"/>
@@ -6283,17 +6327,17 @@
     </row>
     <row r="107" spans="1:34">
       <c r="A107" s="15" t="s">
-        <v>54</v>
+        <v>275</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
       <c r="G107" s="2"/>
-      <c r="H107" s="2">
-        <v>1</v>
-      </c>
+      <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -6313,13 +6357,11 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
-      <c r="AB107" s="2"/>
-      <c r="AC107" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD107" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="AB107" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
       <c r="AG107" s="2"/>
@@ -6327,15 +6369,15 @@
     </row>
     <row r="108" spans="1:34">
       <c r="A108" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B108" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="2">
-        <v>1</v>
-      </c>
+      <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -6357,11 +6399,11 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
-      <c r="AB108" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
-      <c r="AD108" s="2"/>
+      <c r="AD108" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
       <c r="AG108" s="2"/>
@@ -6369,11 +6411,9 @@
     </row>
     <row r="109" spans="1:34">
       <c r="A109" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6388,7 +6428,9 @@
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
+      <c r="Q109" s="2">
+        <v>6</v>
+      </c>
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
@@ -6401,9 +6443,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
-      <c r="AD109" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
       <c r="AG109" s="2"/>
@@ -6411,13 +6451,15 @@
     </row>
     <row r="110" spans="1:34">
       <c r="A110" s="15" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -6428,9 +6470,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
-      <c r="Q110" s="2">
-        <v>6</v>
-      </c>
+      <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
@@ -6441,7 +6481,9 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
+      <c r="AB110" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC110" s="2"/>
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
@@ -6451,19 +6493,19 @@
     </row>
     <row r="111" spans="1:34">
       <c r="A111" s="15" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="2">
-        <v>1</v>
-      </c>
+      <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
+      <c r="J111" s="2">
+        <v>6</v>
+      </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -6473,7 +6515,9 @@
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
+      <c r="T111" s="2">
+        <v>6</v>
+      </c>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
@@ -6481,9 +6525,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
-      <c r="AB111" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
@@ -6493,9 +6535,11 @@
     </row>
     <row r="112" spans="1:34">
       <c r="A112" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6503,9 +6547,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="2">
-        <v>6</v>
-      </c>
+      <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -6515,9 +6557,7 @@
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
-      <c r="T112" s="2">
-        <v>6</v>
-      </c>
+      <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
@@ -6535,17 +6575,17 @@
     </row>
     <row r="113" spans="1:34">
       <c r="A113" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -6565,7 +6605,9 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
-      <c r="AB113" s="2"/>
+      <c r="AB113" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
@@ -6575,18 +6617,20 @@
     </row>
     <row r="114" spans="1:34">
       <c r="A114" s="15" t="s">
-        <v>279</v>
+        <v>57</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2">
+      <c r="G114" s="2">
         <v>1</v>
       </c>
-      <c r="I114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2">
+        <v>3</v>
+      </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -6605,9 +6649,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
-      <c r="AB114" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
@@ -6617,27 +6659,35 @@
     </row>
     <row r="115" spans="1:34">
       <c r="A115" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
-      <c r="G115" s="2">
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2">
+        <v>9</v>
+      </c>
+      <c r="L115" s="2">
+        <v>3</v>
+      </c>
+      <c r="M115" s="2">
+        <v>2</v>
+      </c>
+      <c r="N115" s="2">
+        <v>2</v>
+      </c>
+      <c r="O115" s="2">
         <v>1</v>
       </c>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2">
-        <v>3</v>
-      </c>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
+      <c r="P115" s="2">
+        <v>2</v>
+      </c>
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
@@ -6659,7 +6709,7 @@
     </row>
     <row r="116" spans="1:34">
       <c r="A116" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6691,8 +6741,12 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
+      <c r="T116" s="2">
+        <v>6</v>
+      </c>
+      <c r="U116" s="2">
+        <v>3</v>
+      </c>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
@@ -6709,7 +6763,7 @@
     </row>
     <row r="117" spans="1:34">
       <c r="A117" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6718,35 +6772,21 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
+      <c r="I117" s="2">
+        <v>3</v>
+      </c>
       <c r="J117" s="2"/>
-      <c r="K117" s="2">
-        <v>9</v>
-      </c>
-      <c r="L117" s="2">
-        <v>3</v>
-      </c>
-      <c r="M117" s="2">
-        <v>2</v>
-      </c>
-      <c r="N117" s="2">
-        <v>2</v>
-      </c>
-      <c r="O117" s="2">
-        <v>1</v>
-      </c>
-      <c r="P117" s="2">
-        <v>2</v>
-      </c>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
-      <c r="T117" s="2">
-        <v>6</v>
-      </c>
-      <c r="U117" s="2">
-        <v>3</v>
-      </c>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
@@ -6763,14 +6803,24 @@
     </row>
     <row r="118" spans="1:34">
       <c r="A118" s="15" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
+      <c r="C118" s="2">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1</v>
+      </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2">
         <v>3</v>
@@ -6793,9 +6843,13 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
-      <c r="AB118" s="2"/>
+      <c r="AB118" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC118" s="2"/>
-      <c r="AD118" s="2"/>
+      <c r="AD118" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
       <c r="AG118" s="2"/>
@@ -6803,28 +6857,18 @@
     </row>
     <row r="119" spans="1:34">
       <c r="A119" s="15" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="2">
-        <v>1</v>
-      </c>
-      <c r="D119" s="2">
-        <v>1</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
       <c r="F119" s="2">
         <v>1</v>
       </c>
-      <c r="G119" s="2">
-        <v>1</v>
-      </c>
+      <c r="G119" s="2"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="2">
-        <v>3</v>
-      </c>
+      <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -6837,7 +6881,9 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
-      <c r="V119" s="2"/>
+      <c r="V119" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
@@ -6847,9 +6893,7 @@
         <v>178</v>
       </c>
       <c r="AC119" s="2"/>
-      <c r="AD119" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
       <c r="AG119" s="2"/>
@@ -6857,7 +6901,7 @@
     </row>
     <row r="120" spans="1:34">
       <c r="A120" s="15" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6881,9 +6925,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
-      <c r="V120" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="V120" s="2"/>
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
@@ -6901,25 +6943,37 @@
     </row>
     <row r="121" spans="1:34">
       <c r="A121" s="15" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
       <c r="E121" s="2"/>
-      <c r="F121" s="2">
+      <c r="F121" s="2"/>
+      <c r="G121" s="2">
         <v>1</v>
       </c>
-      <c r="G121" s="2"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
+      <c r="I121" s="2">
+        <v>3</v>
+      </c>
+      <c r="J121" s="2">
+        <v>6</v>
+      </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
+      <c r="M121" s="2">
+        <v>2</v>
+      </c>
+      <c r="N121" s="2">
+        <v>2</v>
+      </c>
       <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
+      <c r="P121" s="2">
+        <v>2</v>
+      </c>
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
@@ -6931,9 +6985,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
-      <c r="AB121" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
@@ -6943,37 +6995,29 @@
     </row>
     <row r="122" spans="1:34">
       <c r="A122" s="15" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="2">
-        <v>1</v>
-      </c>
+      <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="2">
+      <c r="G122" s="2"/>
+      <c r="H122" s="2">
         <v>1</v>
       </c>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2">
-        <v>3</v>
-      </c>
+      <c r="I122" s="2"/>
       <c r="J122" s="2">
         <v>6</v>
       </c>
-      <c r="K122" s="2"/>
+      <c r="K122" s="2">
+        <v>9</v>
+      </c>
       <c r="L122" s="2"/>
-      <c r="M122" s="2">
-        <v>2</v>
-      </c>
-      <c r="N122" s="2">
-        <v>2</v>
-      </c>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
-      <c r="P122" s="2">
-        <v>2</v>
-      </c>
+      <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
@@ -6995,7 +7039,7 @@
     </row>
     <row r="123" spans="1:34">
       <c r="A123" s="15" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7003,16 +7047,12 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="2">
-        <v>1</v>
-      </c>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2">
-        <v>6</v>
-      </c>
-      <c r="K123" s="2">
-        <v>9</v>
-      </c>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2">
+        <v>3</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -7031,7 +7071,9 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
-      <c r="AD123" s="2"/>
+      <c r="AD123" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
       <c r="AG123" s="2"/>
@@ -7039,7 +7081,7 @@
     </row>
     <row r="124" spans="1:34">
       <c r="A124" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7081,7 +7123,7 @@
     </row>
     <row r="125" spans="1:34">
       <c r="A125" s="15" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7090,9 +7132,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="2">
-        <v>3</v>
-      </c>
+      <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
@@ -7111,11 +7151,11 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
-      <c r="AB125" s="2"/>
+      <c r="AB125" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC125" s="2"/>
-      <c r="AD125" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
       <c r="AG125" s="2"/>
@@ -7123,7 +7163,7 @@
     </row>
     <row r="126" spans="1:34">
       <c r="A126" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7163,16 +7203,30 @@
     </row>
     <row r="127" spans="1:34">
       <c r="A127" s="15" t="s">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2">
+        <v>1</v>
+      </c>
+      <c r="I127" s="2">
+        <v>3</v>
+      </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
@@ -7191,9 +7245,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
-      <c r="AB127" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
@@ -7203,9 +7255,11 @@
     </row>
     <row r="128" spans="1:34">
       <c r="A128" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B128" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C128" s="2">
         <v>1</v>
       </c>
@@ -7227,18 +7281,40 @@
       <c r="I128" s="2">
         <v>3</v>
       </c>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
+      <c r="J128" s="2">
+        <v>6</v>
+      </c>
+      <c r="K128" s="2">
+        <v>9</v>
+      </c>
+      <c r="L128" s="2">
+        <v>3</v>
+      </c>
+      <c r="M128" s="2">
+        <v>2</v>
+      </c>
+      <c r="N128" s="2">
+        <v>2</v>
+      </c>
+      <c r="O128" s="2">
+        <v>1</v>
+      </c>
+      <c r="P128" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>6</v>
+      </c>
       <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
+      <c r="S128" s="2">
+        <v>1</v>
+      </c>
+      <c r="T128" s="2">
+        <v>6</v>
+      </c>
+      <c r="U128" s="2">
+        <v>3</v>
+      </c>
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
@@ -7255,73 +7331,37 @@
     </row>
     <row r="129" spans="1:34">
       <c r="A129" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C129" s="2">
-        <v>1</v>
-      </c>
-      <c r="D129" s="2">
-        <v>1</v>
-      </c>
-      <c r="E129" s="2">
-        <v>1</v>
-      </c>
-      <c r="F129" s="2">
-        <v>1</v>
-      </c>
-      <c r="G129" s="2">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2">
-        <v>1</v>
-      </c>
-      <c r="I129" s="2">
-        <v>3</v>
-      </c>
-      <c r="J129" s="2">
-        <v>6</v>
-      </c>
-      <c r="K129" s="2">
-        <v>9</v>
-      </c>
-      <c r="L129" s="2">
-        <v>3</v>
-      </c>
-      <c r="M129" s="2">
-        <v>2</v>
-      </c>
-      <c r="N129" s="2">
-        <v>2</v>
-      </c>
-      <c r="O129" s="2">
-        <v>1</v>
-      </c>
-      <c r="P129" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q129" s="2">
-        <v>6</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
-      <c r="S129" s="2">
-        <v>1</v>
-      </c>
-      <c r="T129" s="2">
-        <v>6</v>
-      </c>
-      <c r="U129" s="2">
-        <v>3</v>
-      </c>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
-      <c r="AB129" s="2"/>
+      <c r="AB129" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC129" s="2"/>
       <c r="AD129" s="2"/>
       <c r="AE129" s="2"/>
@@ -7331,7 +7371,7 @@
     </row>
     <row r="130" spans="1:34">
       <c r="A130" s="15" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7341,7 +7381,9 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
+      <c r="J130" s="2">
+        <v>6</v>
+      </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -7359,9 +7401,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
-      <c r="AB130" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
@@ -7371,7 +7411,7 @@
     </row>
     <row r="131" spans="1:34">
       <c r="A131" s="15" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7381,16 +7421,16 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
-      <c r="J131" s="2">
-        <v>6</v>
-      </c>
+      <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
+      <c r="Q131" s="2">
+        <v>6</v>
+      </c>
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
@@ -7411,9 +7451,11 @@
     </row>
     <row r="132" spans="1:34">
       <c r="A132" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -7428,9 +7470,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
-      <c r="Q132" s="2">
-        <v>6</v>
-      </c>
+      <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -7451,11 +7491,9 @@
     </row>
     <row r="133" spans="1:34">
       <c r="A133" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -7463,7 +7501,9 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
+      <c r="J133" s="2">
+        <v>6</v>
+      </c>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -7491,7 +7531,7 @@
     </row>
     <row r="134" spans="1:34">
       <c r="A134" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7531,7 +7571,7 @@
     </row>
     <row r="135" spans="1:34">
       <c r="A135" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7571,16 +7611,26 @@
     </row>
     <row r="136" spans="1:34">
       <c r="A136" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="C136" s="2">
+        <v>1</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
+      <c r="H136" s="2">
+        <v>1</v>
+      </c>
+      <c r="I136" s="2">
+        <v>3</v>
+      </c>
       <c r="J136" s="2">
         <v>6</v>
       </c>
@@ -7596,7 +7646,9 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
-      <c r="W136" s="2"/>
+      <c r="W136" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
@@ -7611,7 +7663,7 @@
     </row>
     <row r="137" spans="1:34">
       <c r="A137" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2">
@@ -7631,9 +7683,7 @@
       <c r="I137" s="2">
         <v>3</v>
       </c>
-      <c r="J137" s="2">
-        <v>6</v>
-      </c>
+      <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -7663,7 +7713,7 @@
     </row>
     <row r="138" spans="1:34">
       <c r="A138" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2">
@@ -7713,7 +7763,7 @@
     </row>
     <row r="139" spans="1:34">
       <c r="A139" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2">
@@ -7763,7 +7813,7 @@
     </row>
     <row r="140" spans="1:34">
       <c r="A140" s="15" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2">
@@ -7776,33 +7826,47 @@
         <v>1</v>
       </c>
       <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2">
+      <c r="G140" s="2">
         <v>1</v>
       </c>
-      <c r="I140" s="2">
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2">
+        <v>6</v>
+      </c>
+      <c r="K140" s="2">
+        <v>9</v>
+      </c>
+      <c r="L140" s="2">
         <v>3</v>
       </c>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
-      <c r="Q140" s="2"/>
+      <c r="M140" s="2">
+        <v>2</v>
+      </c>
+      <c r="N140" s="2">
+        <v>2</v>
+      </c>
+      <c r="O140" s="2">
+        <v>1</v>
+      </c>
+      <c r="P140" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>6</v>
+      </c>
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
-      <c r="W140" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="W140" s="2"/>
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
-      <c r="AA140" s="2"/>
+      <c r="AA140" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
       <c r="AD140" s="2"/>
@@ -7813,27 +7877,17 @@
     </row>
     <row r="141" spans="1:34">
       <c r="A141" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="2">
-        <v>1</v>
-      </c>
-      <c r="D141" s="2">
-        <v>1</v>
-      </c>
-      <c r="E141" s="2">
-        <v>1</v>
-      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
       <c r="F141" s="2"/>
-      <c r="G141" s="2">
-        <v>1</v>
-      </c>
+      <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
-      <c r="J141" s="2">
-        <v>6</v>
-      </c>
+      <c r="J141" s="2"/>
       <c r="K141" s="2">
         <v>9</v>
       </c>
@@ -7852,9 +7906,7 @@
       <c r="P141" s="2">
         <v>2</v>
       </c>
-      <c r="Q141" s="2">
-        <v>6</v>
-      </c>
+      <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
@@ -7864,9 +7916,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
-      <c r="AA141" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
       <c r="AD141" s="2"/>
@@ -7877,39 +7927,33 @@
     </row>
     <row r="142" spans="1:34">
       <c r="A142" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
-      <c r="K142" s="2">
-        <v>9</v>
-      </c>
-      <c r="L142" s="2">
-        <v>3</v>
-      </c>
-      <c r="M142" s="2">
-        <v>2</v>
-      </c>
-      <c r="N142" s="2">
-        <v>2</v>
-      </c>
-      <c r="O142" s="2">
-        <v>1</v>
-      </c>
-      <c r="P142" s="2">
-        <v>2</v>
-      </c>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
-      <c r="T142" s="2"/>
+      <c r="T142" s="2">
+        <v>6</v>
+      </c>
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
@@ -7927,33 +7971,43 @@
     </row>
     <row r="143" spans="1:34">
       <c r="A143" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="2">
-        <v>1</v>
-      </c>
-      <c r="F143" s="2">
-        <v>1</v>
-      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
+      <c r="I143" s="2">
+        <v>3</v>
+      </c>
+      <c r="J143" s="2">
+        <v>6</v>
+      </c>
+      <c r="K143" s="2">
+        <v>9</v>
+      </c>
+      <c r="L143" s="2">
+        <v>3</v>
+      </c>
+      <c r="M143" s="2">
+        <v>2</v>
+      </c>
+      <c r="N143" s="2">
+        <v>2</v>
+      </c>
+      <c r="O143" s="2">
+        <v>1</v>
+      </c>
+      <c r="P143" s="2">
+        <v>2</v>
+      </c>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
-      <c r="T143" s="2">
-        <v>6</v>
-      </c>
+      <c r="T143" s="2"/>
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
@@ -7971,39 +8025,25 @@
     </row>
     <row r="144" spans="1:34">
       <c r="A144" s="15" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="2">
-        <v>3</v>
-      </c>
-      <c r="J144" s="2">
-        <v>6</v>
-      </c>
-      <c r="K144" s="2">
-        <v>9</v>
-      </c>
-      <c r="L144" s="2">
-        <v>3</v>
-      </c>
-      <c r="M144" s="2">
-        <v>2</v>
-      </c>
-      <c r="N144" s="2">
-        <v>2</v>
-      </c>
-      <c r="O144" s="2">
-        <v>1</v>
-      </c>
-      <c r="P144" s="2">
-        <v>2</v>
-      </c>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
@@ -8015,7 +8055,9 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
-      <c r="AB144" s="2"/>
+      <c r="AB144" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="AC144" s="2"/>
       <c r="AD144" s="2"/>
       <c r="AE144" s="2"/>
@@ -8025,7 +8067,7 @@
     </row>
     <row r="145" spans="1:34">
       <c r="A145" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8047,7 +8089,9 @@
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
+      <c r="T145" s="2">
+        <v>6</v>
+      </c>
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
@@ -8056,7 +8100,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
       <c r="AB145" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AC145" s="2"/>
       <c r="AD145" s="2"/>
@@ -8067,7 +8111,7 @@
     </row>
     <row r="146" spans="1:34">
       <c r="A146" s="15" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8078,7 +8122,9 @@
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
+      <c r="I146" s="2">
+        <v>3</v>
+      </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
@@ -8089,9 +8135,7 @@
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
       <c r="S146" s="2"/>
-      <c r="T146" s="2">
-        <v>6</v>
-      </c>
+      <c r="T146" s="2"/>
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
@@ -8099,9 +8143,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
-      <c r="AB146" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
       <c r="AD146" s="2"/>
       <c r="AE146" s="2"/>
@@ -8111,22 +8153,22 @@
     </row>
     <row r="147" spans="1:34">
       <c r="A147" s="15" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="2">
-        <v>1</v>
-      </c>
+      <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
-      <c r="I147" s="2">
-        <v>3</v>
-      </c>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2">
+        <v>6</v>
+      </c>
+      <c r="K147" s="2">
+        <v>9</v>
+      </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -8153,27 +8195,35 @@
     </row>
     <row r="148" spans="1:34">
       <c r="A148" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
+      <c r="G148" s="2">
+        <v>1</v>
+      </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
-      <c r="J148" s="2">
-        <v>6</v>
-      </c>
-      <c r="K148" s="2">
-        <v>9</v>
-      </c>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2">
+        <v>3</v>
+      </c>
+      <c r="M148" s="2">
+        <v>2</v>
+      </c>
+      <c r="N148" s="2">
+        <v>2</v>
+      </c>
+      <c r="O148" s="2">
+        <v>1</v>
+      </c>
+      <c r="P148" s="2">
+        <v>2</v>
+      </c>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
@@ -8195,9 +8245,11 @@
     </row>
     <row r="149" spans="1:34">
       <c r="A149" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B149" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8209,21 +8261,11 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
-      <c r="L149" s="2">
-        <v>3</v>
-      </c>
-      <c r="M149" s="2">
-        <v>2</v>
-      </c>
-      <c r="N149" s="2">
-        <v>2</v>
-      </c>
-      <c r="O149" s="2">
-        <v>1</v>
-      </c>
-      <c r="P149" s="2">
-        <v>2</v>
-      </c>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
       <c r="S149" s="2"/>
@@ -8245,7 +8287,7 @@
     </row>
     <row r="150" spans="1:34">
       <c r="A150" s="15" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>178</v>
@@ -8254,9 +8296,7 @@
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
-      <c r="G150" s="2">
-        <v>1</v>
-      </c>
+      <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -8287,11 +8327,9 @@
     </row>
     <row r="151" spans="1:34">
       <c r="A151" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -8300,12 +8338,24 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
+      <c r="K151" s="2">
+        <v>9</v>
+      </c>
+      <c r="L151" s="2">
+        <v>3</v>
+      </c>
+      <c r="M151" s="2">
+        <v>2</v>
+      </c>
+      <c r="N151" s="2">
+        <v>2</v>
+      </c>
+      <c r="O151" s="2">
+        <v>1</v>
+      </c>
+      <c r="P151" s="2">
+        <v>2</v>
+      </c>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
@@ -8327,35 +8377,37 @@
     </row>
     <row r="152" spans="1:34">
       <c r="A152" s="15" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
+      <c r="C152" s="2">
+        <v>1</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
+      </c>
+      <c r="F152" s="2">
+        <v>1</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2">
+        <v>1</v>
+      </c>
+      <c r="I152" s="2">
+        <v>3</v>
+      </c>
       <c r="J152" s="2"/>
-      <c r="K152" s="2">
-        <v>9</v>
-      </c>
-      <c r="L152" s="2">
-        <v>3</v>
-      </c>
-      <c r="M152" s="2">
-        <v>2</v>
-      </c>
-      <c r="N152" s="2">
-        <v>2</v>
-      </c>
-      <c r="O152" s="2">
-        <v>1</v>
-      </c>
-      <c r="P152" s="2">
-        <v>2</v>
-      </c>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
@@ -8377,32 +8429,24 @@
     </row>
     <row r="153" spans="1:34">
       <c r="A153" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="2">
-        <v>1</v>
-      </c>
-      <c r="D153" s="2">
-        <v>1</v>
-      </c>
-      <c r="E153" s="2">
-        <v>1</v>
-      </c>
-      <c r="F153" s="2">
-        <v>1</v>
-      </c>
-      <c r="G153" s="2">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2">
-        <v>1</v>
-      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
       <c r="I153" s="2">
         <v>3</v>
       </c>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
+      <c r="J153" s="2">
+        <v>6</v>
+      </c>
+      <c r="K153" s="2">
+        <v>9</v>
+      </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -8411,8 +8455,12 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
       <c r="S153" s="2"/>
-      <c r="T153" s="2"/>
-      <c r="U153" s="2"/>
+      <c r="T153" s="2">
+        <v>6</v>
+      </c>
+      <c r="U153" s="2">
+        <v>3</v>
+      </c>
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
@@ -8429,7 +8477,7 @@
     </row>
     <row r="154" spans="1:34">
       <c r="A154" s="15" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8437,16 +8485,12 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2">
-        <v>3</v>
-      </c>
-      <c r="J154" s="2">
-        <v>6</v>
-      </c>
-      <c r="K154" s="2">
-        <v>9</v>
-      </c>
+      <c r="H154" s="2">
+        <v>1</v>
+      </c>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -8455,12 +8499,8 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
-      <c r="T154" s="2">
-        <v>6</v>
-      </c>
-      <c r="U154" s="2">
-        <v>3</v>
-      </c>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2"/>
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
@@ -8476,18 +8516,13 @@
       <c r="AH154" s="2"/>
     </row>
     <row r="155" spans="1:34">
-      <c r="A155" s="15" t="s">
-        <v>4</v>
-      </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-      <c r="H155" s="2">
-        <v>1</v>
-      </c>
+      <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
@@ -8507,52 +8542,17 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
-      <c r="AB155" s="2"/>
-      <c r="AC155" s="2"/>
-      <c r="AD155" s="2"/>
+      <c r="AB155" s="20"/>
+      <c r="AC155" s="20"/>
+      <c r="AD155" s="20"/>
       <c r="AE155" s="2"/>
       <c r="AF155" s="2"/>
       <c r="AG155" s="2"/>
       <c r="AH155" s="2"/>
     </row>
-    <row r="156" spans="1:34">
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2"/>
-      <c r="V156" s="2"/>
-      <c r="W156" s="2"/>
-      <c r="X156" s="2"/>
-      <c r="Y156" s="2"/>
-      <c r="Z156" s="2"/>
-      <c r="AA156" s="2"/>
-      <c r="AB156" s="20"/>
-      <c r="AC156" s="20"/>
-      <c r="AD156" s="20"/>
-      <c r="AE156" s="2"/>
-      <c r="AF156" s="2"/>
-      <c r="AG156" s="2"/>
-      <c r="AH156" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AJ160">
-    <sortCondition ref="A4:A160"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AJ159">
+    <sortCondition ref="A3:A159"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
